--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_画面遷移図.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_画面遷移図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwasuji/document/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A5761-0473-7E47-868C-5DB3EF6C6E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C673280-BE13-E544-B8D6-03458B71C619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -607,6 +607,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,42 +688,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -706,14 +706,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +762,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3824"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3852"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1066,16 +1066,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16935</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>186268</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>186265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>67735</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>176618</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237068</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>108884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1098,7 +1098,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="524935" y="9685865"/>
+          <a:off x="440268" y="10871198"/>
           <a:ext cx="1574800" cy="3207686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1736,7 +1736,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2798"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2826"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2209,16 +2209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16935</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>186269</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>45773</xdr:rowOff>
+      <xdr:rowOff>45772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>198375</xdr:rowOff>
+      <xdr:colOff>19844</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>164507</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2237,12 +2237,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="524935" y="4431506"/>
-          <a:ext cx="2542908" cy="6858202"/>
+          <a:off x="440269" y="4431505"/>
+          <a:ext cx="2627575" cy="8043535"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 108990"/>
+            <a:gd name="adj1" fmla="val 108700"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -2271,16 +2271,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>42335</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211668</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2299,12 +2299,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="742158" y="5832210"/>
-          <a:ext cx="4423832" cy="3283478"/>
+          <a:off x="107158" y="6382544"/>
+          <a:ext cx="5609165" cy="3368145"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 66842"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -2333,16 +2333,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>42335</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160337</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>176618</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>245002</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>108884</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2361,12 +2361,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1841827" y="10765041"/>
-          <a:ext cx="1599018" cy="2658002"/>
+          <a:off x="2188959" y="11958841"/>
+          <a:ext cx="1158751" cy="3081335"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -14296"/>
+            <a:gd name="adj1" fmla="val -19728"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -2395,15 +2395,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160337</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>245003</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>150282</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2422,12 +2422,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2410884" y="6821486"/>
-          <a:ext cx="3744382" cy="625476"/>
+          <a:off x="2478617" y="7092419"/>
+          <a:ext cx="3947582" cy="286810"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 60854"/>
+            <a:gd name="adj1" fmla="val 28552"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -4256,16 +4256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33866</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>201154</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>169332</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>116487</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4280,7 +4280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2065866" y="6299200"/>
+          <a:off x="1727199" y="7670800"/>
           <a:ext cx="1945288" cy="287865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4324,16 +4324,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>186266</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203201</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4348,8 +4348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2218266" y="8365066"/>
-          <a:ext cx="1727201" cy="321733"/>
+          <a:off x="2675466" y="8805333"/>
+          <a:ext cx="1591735" cy="321734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4393,15 +4393,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>135465</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>203198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>135466</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4416,7 +4416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2167467" y="12649198"/>
+          <a:off x="2082800" y="14376398"/>
           <a:ext cx="1777999" cy="270935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5227,15 +5227,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>168274</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83606</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>150282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5251,8 +5251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2962274" y="9006415"/>
-          <a:ext cx="2016126" cy="2288118"/>
+          <a:off x="3131606" y="9209615"/>
+          <a:ext cx="2354793" cy="3710518"/>
           <a:chOff x="3673474" y="9683749"/>
           <a:chExt cx="2016126" cy="1830918"/>
         </a:xfrm>
@@ -5321,8 +5321,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3759200" y="10244668"/>
-            <a:ext cx="1811870" cy="999069"/>
+            <a:off x="3788196" y="9943818"/>
+            <a:ext cx="1811870" cy="1467032"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5396,8 +5396,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4764812" y="10914632"/>
-            <a:ext cx="681786" cy="269131"/>
+            <a:off x="4735816" y="11087467"/>
+            <a:ext cx="681786" cy="255052"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5457,8 +5457,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3941611" y="10906100"/>
-            <a:ext cx="681786" cy="267115"/>
+            <a:off x="3912614" y="11078829"/>
+            <a:ext cx="681786" cy="253141"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5510,16 +5510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>67736</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>75141</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237068</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>176740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>198375</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83606</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>164507</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5537,8 +5537,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2099736" y="10150474"/>
-          <a:ext cx="862539" cy="1139234"/>
+          <a:off x="2015068" y="11064873"/>
+          <a:ext cx="1116538" cy="1410167"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5571,16 +5571,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67736</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>84668</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50802</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5595,8 +5595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2167467" y="11362266"/>
-          <a:ext cx="1727201" cy="321733"/>
+          <a:off x="1337736" y="10532532"/>
+          <a:ext cx="1761066" cy="338668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5639,16 +5639,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67734</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>237068</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12993</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>174633</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186267</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5663,8 +5663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1083734" y="12361333"/>
-          <a:ext cx="453259" cy="327033"/>
+          <a:off x="999068" y="13529734"/>
+          <a:ext cx="457199" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7844,6 +7844,265 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>40217</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>74155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FE1747-9FDF-D043-BA50-AD3A686555A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3437467" y="10634133"/>
+          <a:ext cx="1682750" cy="328155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ニックネーム　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>テスト太郎</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>40217</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>141889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A172C013-FCD7-5441-B760-9941287A4241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3437467" y="11108267"/>
+          <a:ext cx="1682750" cy="328155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>TEST0123</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>40216</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>192688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE0FFBF-D71C-3248-ACAF-D48269B5D4DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3437466" y="11565466"/>
+          <a:ext cx="1682750" cy="328155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>PW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>＊＊＊＊＊＊＊＊</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8149,198 +8408,198 @@
   </sheetPr>
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="39" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="39" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="39" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="39" t="s">
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="39" t="s">
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="41"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="53"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="42" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="42" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="48">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="60">
         <v>44564</v>
       </c>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="42" t="s">
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="48">
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="60">
         <v>44605</v>
       </c>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="44"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="56"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="59"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -8357,11 +8616,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -8370,6 +8624,11 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8471,12 +8730,12 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="66">
         <v>44570</v>
       </c>
@@ -8536,10 +8795,10 @@
         <v/>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="66"/>
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
@@ -8593,10 +8852,10 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="66"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
@@ -8650,10 +8909,10 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -8707,10 +8966,10 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="66"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -8764,10 +9023,10 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="66"/>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
@@ -8821,10 +9080,10 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="66"/>
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
@@ -8878,10 +9137,10 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="66"/>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
@@ -8935,10 +9194,10 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="66"/>
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
@@ -8992,10 +9251,10 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="66"/>
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
@@ -9049,10 +9308,10 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="66"/>
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
@@ -9106,10 +9365,10 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="66"/>
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
@@ -9163,10 +9422,10 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="66"/>
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
@@ -9220,10 +9479,10 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="66"/>
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
@@ -9277,10 +9536,10 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="66"/>
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
@@ -9334,10 +9593,10 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="66"/>
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
@@ -9391,10 +9650,10 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="66"/>
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
@@ -9448,10 +9707,10 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="65"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="66"/>
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
@@ -9505,10 +9764,10 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="66"/>
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
@@ -9562,10 +9821,10 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="66"/>
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
@@ -9619,10 +9878,10 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="66"/>
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
@@ -9676,10 +9935,10 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="66"/>
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
@@ -9733,10 +9992,10 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="66"/>
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
@@ -9790,10 +10049,10 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="66"/>
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
@@ -9847,10 +10106,10 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="65"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="66"/>
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
@@ -9904,10 +10163,10 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="66"/>
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
@@ -9961,10 +10220,10 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="66"/>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
@@ -10018,10 +10277,10 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="66"/>
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
@@ -10071,6 +10330,136 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:AL8"/>
@@ -10081,136 +10470,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10224,8 +10483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
   <dimension ref="A1:BH75"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AB72" sqref="AB72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -14266,9 +14525,9 @@
       <c r="BH65" s="17"/>
     </row>
     <row r="66" spans="1:60">
-      <c r="A66" s="72"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
@@ -14328,9 +14587,9 @@
       <c r="BH66" s="17"/>
     </row>
     <row r="67" spans="1:60">
-      <c r="A67" s="74"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
